--- a/Child/Analysis/SummaryTestVc - Lag0.xlsx
+++ b/Child/Analysis/SummaryTestVc - Lag0.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Roa" sheetId="3" r:id="rId1"/>
-    <sheet name="Tobin" sheetId="1" r:id="rId2"/>
-    <sheet name="ROE" sheetId="2" r:id="rId3"/>
-    <sheet name="Alpha" sheetId="4" r:id="rId4"/>
-    <sheet name="Ra" sheetId="5" r:id="rId5"/>
+    <sheet name="Roic" sheetId="6" r:id="rId1"/>
+    <sheet name="Roa" sheetId="3" r:id="rId2"/>
+    <sheet name="Tobin" sheetId="1" r:id="rId3"/>
+    <sheet name="ROE" sheetId="2" r:id="rId4"/>
+    <sheet name="Alpha" sheetId="4" r:id="rId5"/>
+    <sheet name="Ra" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="64">
   <si>
     <t>FirmSize</t>
   </si>
@@ -105,9 +106,6 @@
     <t>WatP</t>
   </si>
   <si>
-    <t>CapP</t>
-  </si>
-  <si>
     <t>+**</t>
   </si>
   <si>
@@ -208,6 +206,21 @@
   </si>
   <si>
     <t>0,923</t>
+  </si>
+  <si>
+    <t>0,433</t>
+  </si>
+  <si>
+    <t>0,427</t>
+  </si>
+  <si>
+    <t>0,429</t>
+  </si>
+  <si>
+    <t>0,431</t>
+  </si>
+  <si>
+    <t>0,425</t>
   </si>
 </sst>
 </file>
@@ -558,10 +571,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>0.44</v>
+      </c>
+      <c r="F16">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.439</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -813,13 +1185,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -888,16 +1260,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
       </c>
       <c r="F16">
         <v>0.46400000000000002</v>
@@ -906,10 +1278,10 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -917,12 +1289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +1327,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,10 +1490,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>12</v>
@@ -1135,25 +1507,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>12</v>
@@ -1190,31 +1562,31 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,15 +1609,15 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -1258,28 +1630,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1291,12 +1663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
@@ -1531,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -1540,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,16 +1982,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F16">
         <v>0.28999999999999998</v>
@@ -1628,10 +2000,10 @@
         <v>0.254</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +2011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -1681,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1852,13 +2224,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1951,16 +2323,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>3.2000000000000001E-2</v>
@@ -1970,7 +2342,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +2350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2018,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,7 +2612,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -2282,16 +2654,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>8.5999999999999993E-2</v>
@@ -2300,10 +2672,10 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
